--- a/MOUSE BRAIN PROTEOME HRMS/UNIQUE/Olfactory_balb_UNIQUE.xlsx
+++ b/MOUSE BRAIN PROTEOME HRMS/UNIQUE/Olfactory_balb_UNIQUE.xlsx
@@ -14,978 +14,1950 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="648">
   <si>
     <t>Accession Name</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>LPP60_MOUSE</t>
   </si>
   <si>
+    <t>60 kDa lysophospholipase (EC 3.1.1.5) (Lysophospholipase-transacylase) [Includes: L-asparaginase (EC 3.5.1.1) (L-asparagine amidohydrolase); 1-alkyl-2-acetylglycerophosphocholine esterase (EC 3.1.1.47) (Platelet-activating factor acetylhydrolase) (PAF acetylhydrolase)]</t>
+  </si>
+  <si>
     <t>KLD7A_MOUSE</t>
   </si>
   <si>
+    <t>Kelch domain-containing protein 7A</t>
+  </si>
+  <si>
     <t>K1C28_MOUSE</t>
   </si>
   <si>
+    <t>Keratin, type I cytoskeletal 28 (Cytokeratin-28) (CK-28) (Keratin-25D) (K25D) (Keratin-28) (K28) (Type I inner root sheath-specific keratin-K25irs4)</t>
+  </si>
+  <si>
     <t>NWD1_MOUSE</t>
   </si>
   <si>
+    <t>NACHT domain- and WD repeat-containing protein 1</t>
+  </si>
+  <si>
     <t>IGSF2_MOUSE</t>
   </si>
   <si>
+    <t>Immunoglobulin superfamily member 2 (IgSF2) (Glu-Trp-Ile EWI motif-containing protein 101) (EWI-101) (CD antigen CD101)</t>
+  </si>
+  <si>
     <t>UBP24_MOUSE</t>
   </si>
   <si>
+    <t>Ubiquitin carboxyl-terminal hydrolase 24 (EC 3.4.19.12) (Deubiquitinating enzyme 24) (Ubiquitin thioesterase 24) (Ubiquitin-specific-processing protease 24)</t>
+  </si>
+  <si>
     <t>OTUD3_MOUSE</t>
   </si>
   <si>
+    <t>OTU domain-containing protein 3 (EC 3.4.19.12)</t>
+  </si>
+  <si>
     <t>ABCB5_MOUSE</t>
   </si>
   <si>
+    <t>ATP-binding cassette sub-family B member 5 (ABCB5 P-gp) (P-glycoprotein ABCB5)</t>
+  </si>
+  <si>
     <t>PDIA2_MOUSE</t>
   </si>
   <si>
+    <t>Protein disulfide-isomerase A2 (EC 5.3.4.1) (PDIp)</t>
+  </si>
+  <si>
     <t>SOGA1_MOUSE</t>
   </si>
   <si>
+    <t>Protein SOGA1 (SOGA family member 1) (Suppressor of glucose by autophagy) (Suppressor of glucose, autophagy-associated protein 1) [Cleaved into: N-terminal form; C-terminal 80 kDa form (80-kDa SOGA fragment)]</t>
+  </si>
+  <si>
     <t>PIEZ1_MOUSE</t>
   </si>
   <si>
+    <t>Piezo-type mechanosensitive ion channel component 1 (Protein FAM38A)</t>
+  </si>
+  <si>
     <t>PTPRO_MOUSE</t>
   </si>
   <si>
+    <t>Receptor-type tyrosine-protein phosphatase O (R-PTP-O) (EC 3.1.3.48) (Glomerular epithelial protein 1) (Protein tyrosine phosphatase U2) (PTP-U2) (PTPase U2)</t>
+  </si>
+  <si>
     <t>U17PB_MOUSE</t>
   </si>
   <si>
+    <t>Ubiquitin carboxyl-terminal hydrolase 17-like protein B (USP17-B) (EC 3.4.19.12) (Deubiquitinating enzyme 1A)</t>
+  </si>
+  <si>
     <t>TCOF_MOUSE</t>
   </si>
   <si>
+    <t>Treacle protein (Treacher Collins syndrome protein homolog)</t>
+  </si>
+  <si>
     <t>SNP23_MOUSE</t>
   </si>
   <si>
+    <t>Synaptosomal-associated protein 23 (SNAP-23) (Syndet) (Vesicle-membrane fusion protein SNAP-23)</t>
+  </si>
+  <si>
     <t>ADAM7_MOUSE</t>
   </si>
   <si>
+    <t>Disintegrin and metalloproteinase domain-containing protein 7 (ADAM 7)</t>
+  </si>
+  <si>
     <t>BET1_MOUSE</t>
   </si>
   <si>
+    <t>BET1 homolog (mBET1) (Golgi vesicular membrane-trafficking protein p18)</t>
+  </si>
+  <si>
     <t>PPE1_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein phosphatase with EF-hands 1 (PPEF-1) (EC 3.1.3.16) (DRES10) (Protein phosphatase with EF calcium-binding domain) (PPEF)</t>
+  </si>
+  <si>
     <t>PININ_MOUSE</t>
   </si>
   <si>
+    <t>Pinin</t>
+  </si>
+  <si>
     <t>DFFA_MOUSE</t>
   </si>
   <si>
+    <t>DNA fragmentation factor subunit alpha (DNA fragmentation factor 45 kDa subunit) (DFF-45) (Inhibitor of CAD) (ICAD)</t>
+  </si>
+  <si>
     <t>EOMES_MOUSE</t>
   </si>
   <si>
+    <t>Eomesodermin homolog (T-box brain protein 2) (T-brain-2) (TBR-2)</t>
+  </si>
+  <si>
     <t>PHLD_MOUSE</t>
   </si>
   <si>
+    <t>Phosphatidylinositol-glycan-specific phospholipase D (PI-G PLD) (EC 3.1.4.50) (Glycoprotein phospholipase D) (Glycosyl-phosphatidylinositol-specific phospholipase D) (GPI-PLD) (GPI-specific phospholipase D)</t>
+  </si>
+  <si>
     <t>UGDH_MOUSE</t>
   </si>
   <si>
+    <t>UDP-glucose 6-dehydrogenase (UDP-Glc dehydrogenase) (UDP-GlcDH) (UDPGDH) (EC 1.1.1.22)</t>
+  </si>
+  <si>
     <t>UBR1_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase UBR1 (EC 2.3.2.27) (N-recognin-1) (RING-type E3 ubiquitin transferase UBR1) (Ubiquitin-protein ligase E3-alpha-1) (Ubiquitin-protein ligase E3-alpha-I)</t>
+  </si>
+  <si>
     <t>DNM3A_MOUSE</t>
   </si>
   <si>
+    <t>DNA (cytosine-5)-methyltransferase 3A (Dnmt3a) (EC 2.1.1.37) (DNA methyltransferase MmuIIIA) (DNA MTase MmuIIIA) (M.MmuIIIA)</t>
+  </si>
+  <si>
     <t>S27A3_MOUSE</t>
   </si>
   <si>
+    <t>Solute carrier family 27 member 3 (EC 6.2.1.-) (Arachidonate--CoA ligase) (EC 6.2.1.15) (Long-chain fatty acid transport protein 3) (FATP-3) (Fatty acid transport protein 3) (Very long-chain acyl-CoA synthetase homolog 3) (VLCS-3)</t>
+  </si>
+  <si>
     <t>I13R2_MOUSE</t>
   </si>
   <si>
+    <t>Interleukin-13 receptor subunit alpha-2 (IL-13 receptor subunit alpha-2) (IL-13R subunit alpha-2) (IL-13R-alpha-2) (IL-13RA2) (CD antigen CD213a2)</t>
+  </si>
+  <si>
     <t>SERF1_MOUSE</t>
   </si>
   <si>
+    <t>Small EDRK-rich factor 1 (Protein 4F5) (m4F5)</t>
+  </si>
+  <si>
     <t>GNPI1_MOUSE</t>
   </si>
   <si>
+    <t>Glucosamine-6-phosphate isomerase 1 (EC 3.5.99.6) (Glucosamine-6-phosphate deaminase 1) (GNPDA 1) (GlcN6P deaminase 1) (Oscillin)</t>
+  </si>
+  <si>
     <t>COX1_MOUSE</t>
   </si>
   <si>
+    <t>Cytochrome c oxidase subunit 1 (EC 7.1.1.9) (Cytochrome c oxidase polypeptide I)</t>
+  </si>
+  <si>
     <t>CO4B_MOUSE</t>
   </si>
   <si>
+    <t>Complement C4-B [Cleaved into: Complement C4 beta chain; Complement C4 alpha chain; C4a anaphylatoxin; Complement C4 gamma chain]</t>
+  </si>
+  <si>
     <t>ITAM_MOUSE</t>
   </si>
   <si>
+    <t>Integrin alpha-M (CD11 antigen-like family member B) (CR-3 alpha chain) (Cell surface glycoprotein MAC-1 subunit alpha) (Leukocyte adhesion receptor MO1) (CD antigen CD11b)</t>
+  </si>
+  <si>
     <t>PGFRB_MOUSE</t>
   </si>
   <si>
+    <t>Platelet-derived growth factor receptor beta (PDGF-R-beta) (PDGFR-beta) (EC 2.7.10.1) (Beta platelet-derived growth factor receptor) (Beta-type platelet-derived growth factor receptor) (CD140 antigen-like family member B) (Platelet-derived growth factor receptor 1) (PDGFR-1) (CD antigen CD140b)</t>
+  </si>
+  <si>
     <t>PAX1_MOUSE</t>
   </si>
   <si>
+    <t>Paired box protein Pax-1</t>
+  </si>
+  <si>
     <t>DYH2_MOUSE</t>
   </si>
   <si>
+    <t>Dynein heavy chain 2, axonemal (Axonemal beta dynein heavy chain 2) (Ciliary dynein heavy chain 2)</t>
+  </si>
+  <si>
     <t>ALKB1_MOUSE</t>
   </si>
   <si>
+    <t>Nucleic acid dioxygenase ALKBH1 (EC 1.14.11.-) (Alkylated DNA repair protein alkB homolog 1) (Alpha-ketoglutarate-dependent dioxygenase ABH1) (DNA 6mA demethylase) (DNA N6-methyl adenine demethylase ALKBH1) (EC 1.14.11.51) (DNA lyase ABH1) (EC 4.2.99.18) (DNA oxidative demethylase ALKBH1) (EC 1.14.11.33) (mRNA N(3)-methylcytidine demethylase) (EC 1.14.11.-) (tRNA N1-methyl adenine demethylase) (EC 1.14.11.-)</t>
+  </si>
+  <si>
     <t>ANXA1_MOUSE</t>
   </si>
   <si>
+    <t>Annexin A1 (Annexin I) (Annexin-1) (Calpactin II) (Calpactin-2) (Chromobindin-9) (Lipocortin I) (Phospholipase A2 inhibitory protein) (p35)</t>
+  </si>
+  <si>
     <t>GSTM2_MOUSE</t>
   </si>
   <si>
+    <t>Glutathione S-transferase Mu 2 (EC 2.5.1.18) (GST 5-5) (GST class-mu 2) (Glutathione S-transferase pmGT2)</t>
+  </si>
+  <si>
     <t>DDX3L_MOUSE</t>
   </si>
   <si>
+    <t>Putative ATP-dependent RNA helicase Pl10 (EC 3.6.4.13)</t>
+  </si>
+  <si>
     <t>LIPR2_MOUSE</t>
   </si>
   <si>
+    <t>Pancreatic lipase-related protein 2 (PL-RP2) (EC 3.1.1.26) (EC 3.1.1.3) (Cytotoxic T-lymphocyte lipase) (Galactolipase)</t>
+  </si>
+  <si>
     <t>IL10_MOUSE</t>
   </si>
   <si>
+    <t>Interleukin-10 (IL-10) (Cytokine synthesis inhibitory factor) (CSIF)</t>
+  </si>
+  <si>
     <t>MDR1A_MOUSE</t>
   </si>
   <si>
+    <t>ATP-dependent translocase ABCB1 (ATP-binding cassette sub-family B member 1A) (MDR1A) (Multidrug resistance protein 1A) (EC 7.6.2.2) (Multidrug resistance protein 3) (P-glycoprotein 3) (Phospholipid transporter ABCB1) (EC 7.6.2.1)</t>
+  </si>
+  <si>
     <t>ENOB_MOUSE</t>
   </si>
   <si>
+    <t>Beta-enolase (EC 4.2.1.11) (2-phospho-D-glycerate hydro-lyase) (Enolase 3) (Muscle-specific enolase) (MSE) (Skeletal muscle enolase)</t>
+  </si>
+  <si>
     <t>CBL_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase CBL (EC 2.3.2.27) (Casitas B-lineage lymphoma proto-oncogene) (Proto-oncogene c-Cbl) (RING-type E3 ubiquitin transferase CBL) (Signal transduction protein CBL)</t>
+  </si>
+  <si>
     <t>KCNE1_MOUSE</t>
   </si>
   <si>
+    <t>Potassium voltage-gated channel subfamily E member 1 (Delayed rectifier potassium channel subunit IsK) (mISK) (IKs producing slow voltage-gated potassium channel subunit beta Mink) (Minimal potassium channel)</t>
+  </si>
+  <si>
     <t>FCL_MOUSE</t>
   </si>
   <si>
+    <t>GDP-L-fucose synthase (EC 1.1.1.271) (GDP-4-keto-6-deoxy-D-mannose-3,5-epimerase-4-reductase) (Protein FX) (Red cell NADP(H)-binding protein) (Transplantation antigen P35B) (Tum-P35B antigen)</t>
+  </si>
+  <si>
     <t>TY3H_MOUSE</t>
   </si>
   <si>
+    <t>Tyrosine 3-monooxygenase (EC 1.14.16.2) (Tyrosine 3-hydroxylase) (TH)</t>
+  </si>
+  <si>
     <t>CCNB1_MOUSE</t>
   </si>
   <si>
+    <t>G2/mitotic-specific cyclin-B1</t>
+  </si>
+  <si>
     <t>TNR1A_MOUSE</t>
   </si>
   <si>
+    <t>Tumor necrosis factor receptor superfamily member 1A (Tumor necrosis factor receptor 1) (TNF-R1) (Tumor necrosis factor receptor type I) (TNF-RI) (TNFR-I) (p55) (p60) (CD antigen CD120a)</t>
+  </si>
+  <si>
     <t>CELF1_MOUSE</t>
   </si>
   <si>
+    <t>CUGBP Elav-like family member 1 (CELF-1) (50 kDa nuclear polyadenylated RNA-binding protein) (Brain protein F41) (Bruno-like protein 2) (CUG triplet repeat RNA-binding protein 1) (CUG-BP1) (CUG-BP- and ETR-3-like factor 1) (Deadenylation factor CUG-BP) (Deadenylation factor EDEN-BP) (Embryo deadenylation element-binding protein homolog) (EDEN-BP homolog) (RNA-binding protein BRUNOL-2)</t>
+  </si>
+  <si>
     <t>IRS1_MOUSE</t>
   </si>
   <si>
+    <t>Insulin receptor substrate 1 (IRS-1)</t>
+  </si>
+  <si>
     <t>ERCC5_MOUSE</t>
   </si>
   <si>
+    <t>DNA repair protein complementing XP-G cells homolog (EC 3.1.-.-) (DNA excision repair protein ERCC-5) (Xeroderma pigmentosum group G-complementing protein homolog)</t>
+  </si>
+  <si>
     <t>ABCA2_MOUSE</t>
   </si>
   <si>
+    <t>ATP-binding cassette sub-family A member 2 (ATP-binding cassette transporter 2) (ATP-binding cassette 2)</t>
+  </si>
+  <si>
     <t>PBX1_MOUSE</t>
   </si>
   <si>
+    <t>Pre-B-cell leukemia transcription factor 1 (Homeobox protein PBX1)</t>
+  </si>
+  <si>
     <t>PP2BC_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein phosphatase 2B catalytic subunit gamma isoform (EC 3.1.3.16) (CAM-PRP catalytic subunit) (Calcineurin, testis-specific catalytic subunit) (Calmodulin-dependent calcineurin A subunit gamma isoform)</t>
+  </si>
+  <si>
     <t>PCNT_MOUSE</t>
   </si>
   <si>
+    <t>Pericentrin</t>
+  </si>
+  <si>
     <t>BRCA1_MOUSE</t>
   </si>
   <si>
+    <t>Breast cancer type 1 susceptibility protein homolog (EC 2.3.2.27) (RING-type E3 ubiquitin transferase BRCA1)</t>
+  </si>
+  <si>
     <t>CAMLG_MOUSE</t>
   </si>
   <si>
+    <t>Calcium signal-modulating cyclophilin ligand (CAML)</t>
+  </si>
+  <si>
     <t>DHB8_MOUSE</t>
   </si>
   <si>
+    <t>Estradiol 17-beta-dehydrogenase 8 (EC 1.1.1.62) (17-beta-hydroxysteroid dehydrogenase 8) (17-beta-HSD 8) (3-ketoacyl-[acyl-carrier-protein] reductase alpha subunit) (KAR alpha subunit) (3-oxoacyl-[acyl-carrier-protein] reductase) (EC 1.1.1.-) (Protein Ke6) (Ke-6) (Testosterone 17-beta-dehydrogenase 8) (EC 1.1.1.239)</t>
+  </si>
+  <si>
     <t>BTG3_MOUSE</t>
   </si>
   <si>
+    <t>Protein BTG3 (Abundant in neuroepithelium area protein) (BTG family member 3) (Protein Tob5)</t>
+  </si>
+  <si>
     <t>FANCC_MOUSE</t>
   </si>
   <si>
+    <t>Fanconi anemia group C protein homolog (Protein FACC)</t>
+  </si>
+  <si>
     <t>PPOX_MOUSE</t>
   </si>
   <si>
+    <t>Protoporphyrinogen oxidase (PPO) (EC 1.3.3.4)</t>
+  </si>
+  <si>
     <t>CLCN3_MOUSE</t>
   </si>
   <si>
+    <t>H(+)/Cl(-) exchange transporter 3 (Chloride channel protein 3) (ClC-3) (Chloride transporter ClC-3)</t>
+  </si>
+  <si>
     <t>KCNJ4_MOUSE</t>
   </si>
   <si>
+    <t>Inward rectifier potassium channel 4 (Inward rectifier K(+) channel Kir2.3) (IRK-3) (Potassium channel, inwardly rectifying subfamily J member 4)</t>
+  </si>
+  <si>
     <t>CLGN_MOUSE</t>
   </si>
   <si>
+    <t>Calmegin (A2/6) (Calnexin-T) (MEG 1 antigen)</t>
+  </si>
+  <si>
     <t>GUC2E_MOUSE</t>
   </si>
   <si>
+    <t>Retinal guanylyl cyclase 1 (Guanylate cyclase 2E) (Guanylyl cyclase GC-E) (EC 4.6.1.2)</t>
+  </si>
+  <si>
     <t>PIPNB_MOUSE</t>
   </si>
   <si>
+    <t>Phosphatidylinositol transfer protein beta isoform (PI-TP-beta) (PtdIns transfer protein beta) (PtdInsTP beta)</t>
+  </si>
+  <si>
     <t>ENTP1_MOUSE</t>
   </si>
   <si>
+    <t>Ectonucleoside triphosphate diphosphohydrolase 1 (NTPDase 1) (EC 3.6.1.5) (Ecto-ATP diphosphohydrolase 1) (Ecto-ATPDase 1) (Ecto-ATPase 1) (Ecto-apyrase) (Lymphoid cell activation antigen) (CD antigen CD39)</t>
+  </si>
+  <si>
     <t>RT21_MOUSE</t>
   </si>
   <si>
+    <t>28S ribosomal protein S21, mitochondrial (MRP-S21) (S21mt)</t>
+  </si>
+  <si>
     <t>B3GA3_MOUSE</t>
   </si>
   <si>
+    <t>Galactosylgalactosylxylosylprotein 3-beta-glucuronosyltransferase 3 (EC 2.4.1.135) (Beta-1,3-glucuronyltransferase 3) (Glucuronosyltransferase I) (GlcAT-I) (UDP-GlcUA:Gal beta-1,3-Gal-R glucuronyltransferase) (GlcUAT-I)</t>
+  </si>
+  <si>
     <t>ANS1A_MOUSE</t>
   </si>
   <si>
+    <t>Ankyrin repeat and SAM domain-containing protein 1A (Odin)</t>
+  </si>
+  <si>
     <t>LRCH1_MOUSE</t>
   </si>
   <si>
+    <t>Leucine-rich repeat and calponin homology domain-containing protein 1 (Calponin homology domain-containing protein 1)</t>
+  </si>
+  <si>
     <t>RS11_MOUSE</t>
   </si>
   <si>
+    <t>40S ribosomal protein S11</t>
+  </si>
+  <si>
     <t>YBOX1_MOUSE</t>
   </si>
   <si>
+    <t>Y-box-binding protein 1 (YB-1) (CCAAT-binding transcription factor I subunit A) (CBF-A) (DNA-binding protein B) (DBPB) (Enhancer factor I subunit A) (EFI-A) (Nuclease-sensitive element-binding protein 1) (Y-box transcription factor)</t>
+  </si>
+  <si>
     <t>GBG8_MOUSE</t>
   </si>
   <si>
+    <t>Guanine nucleotide-binding protein G(I)/G(S)/G(O) subunit gamma-8 (Gamma-9)</t>
+  </si>
+  <si>
     <t>S10A5_MOUSE</t>
   </si>
   <si>
+    <t>Protein S100-A5 (Protein S-100D) (S100 calcium-binding protein A5)</t>
+  </si>
+  <si>
     <t>DYL1_MOUSE</t>
   </si>
   <si>
+    <t>Dynein light chain 1, cytoplasmic (8 kDa dynein light chain) (DLC8) (Dynein light chain LC8-type 1) (Protein inhibitor of neuronal nitric oxide synthase) (PIN) (mPIN)</t>
+  </si>
+  <si>
     <t>FV1_MOUSE</t>
   </si>
   <si>
+    <t>Friend virus susceptibility protein 1</t>
+  </si>
+  <si>
     <t>MCM2_MOUSE</t>
   </si>
   <si>
+    <t>DNA replication licensing factor MCM2 (EC 3.6.4.12) (Minichromosome maintenance protein 2 homolog) (Nuclear protein BM28)</t>
+  </si>
+  <si>
     <t>ETV6_MOUSE</t>
   </si>
   <si>
+    <t>Transcription factor ETV6 (ETS translocation variant 6) (ETS-related protein Tel1) (Tel)</t>
+  </si>
+  <si>
     <t>MEIS2_MOUSE</t>
   </si>
   <si>
+    <t>Homeobox protein Meis2 (Meis1-related protein 1)</t>
+  </si>
+  <si>
     <t>ARG28_MOUSE</t>
   </si>
   <si>
+    <t>Rho guanine nucleotide exchange factor 28 (190 kDa guanine nucleotide exchange factor) (p190-RhoGEF) (p190RhoGEF) (Rho guanine nucleotide exchange factor) (Rho-interacting protein 2)</t>
+  </si>
+  <si>
     <t>TRBP2_MOUSE</t>
   </si>
   <si>
+    <t>RISC-loading complex subunit TARBP2 (Protamine-1 RNA-binding protein) (PRM-1 RNA-binding protein) (TAR RNA-binding protein 2)</t>
+  </si>
+  <si>
     <t>CPT1A_MOUSE</t>
   </si>
   <si>
+    <t>Carnitine O-palmitoyltransferase 1, liver isoform (CPT1-L) (EC 2.3.1.21) (Carnitine O-palmitoyltransferase I, liver isoform) (CPT I) (CPTI-L) (Carnitine palmitoyltransferase 1A)</t>
+  </si>
+  <si>
     <t>CDR2_MOUSE</t>
   </si>
   <si>
+    <t>Cerebellar degeneration-related protein 2</t>
+  </si>
+  <si>
     <t>SHC1_MOUSE</t>
   </si>
   <si>
+    <t>SHC-transforming protein 1 (SHC-transforming protein A) (Src homology 2 domain-containing-transforming protein C1) (SH2 domain protein C1)</t>
+  </si>
+  <si>
     <t>AT8A2_MOUSE</t>
   </si>
   <si>
+    <t>Phospholipid-transporting ATPase IB (EC 7.6.2.1) (ATPase class I type 8A member 2) (P4-ATPase flippase complex alpha subunit ATP8A2)</t>
+  </si>
+  <si>
     <t>CSF2R_MOUSE</t>
   </si>
   <si>
+    <t>Granulocyte-macrophage colony-stimulating factor receptor subunit alpha (GM-CSF-R-alpha) (GMCSFR-alpha) (GMR-alpha) (CD antigen CD116)</t>
+  </si>
+  <si>
     <t>TOP2A_MOUSE</t>
   </si>
   <si>
+    <t>DNA topoisomerase 2-alpha (EC 5.6.2.2) (DNA topoisomerase II, alpha isozyme)</t>
+  </si>
+  <si>
     <t>GBP1_MOUSE</t>
   </si>
   <si>
+    <t>Guanylate-binding protein 1 (EC 3.6.5.-) (GTP-binding protein 1) (GBP-1) (mGBP-1) (mGBP1) (Guanine nucleotide-binding protein 1) (Interferon-gamma-inducible protein MAG-1) (Interferon-induced guanylate-binding protein 1)</t>
+  </si>
+  <si>
     <t>MYH6_MOUSE</t>
   </si>
   <si>
+    <t>Myosin-6 (Myosin heavy chain 6) (Myosin heavy chain, cardiac muscle alpha isoform) (MyHC-alpha)</t>
+  </si>
+  <si>
     <t>GLCM1_MOUSE</t>
   </si>
   <si>
+    <t>Glycosylation-dependent cell adhesion molecule 1 (GlyCAM-1) (Endothelial ligand FOR L-selectin) (MC26) (SGP50) (Sulfated 50 kDa glycoprotein)</t>
+  </si>
+  <si>
     <t>B2LA1_MOUSE</t>
   </si>
   <si>
+    <t>Bcl-2-related protein A1 (A1-A) (Hemopoietic-specific early response protein) (Protein BFL-1)</t>
+  </si>
+  <si>
     <t>SPERI_MOUSE</t>
   </si>
   <si>
+    <t>Speriolin (Spermatogenesis and centriole-associated protein 1) (Spermatogenic cell-specific Cdc20-binding protein)</t>
+  </si>
+  <si>
     <t>ERF3B_MOUSE</t>
   </si>
   <si>
+    <t>Eukaryotic peptide chain release factor GTP-binding subunit ERF3B (Eukaryotic peptide chain release factor subunit 3b) (eRF3b) (G1 to S phase transition protein 2 homolog)</t>
+  </si>
+  <si>
     <t>CDCA2_MOUSE</t>
   </si>
   <si>
+    <t>Cell division cycle-associated protein 2</t>
+  </si>
+  <si>
     <t>TZAP_MOUSE</t>
   </si>
   <si>
+    <t>Telomere zinc finger-associated protein (TZAP) (Krueppel-related zinc finger protein 3 homolog) (Zinc finger and BTB domain-containing protein 48)</t>
+  </si>
+  <si>
     <t>COOA1_MOUSE</t>
   </si>
   <si>
+    <t>Collagen alpha-1(XXIV) chain</t>
+  </si>
+  <si>
     <t>H1BP3_MOUSE</t>
   </si>
   <si>
+    <t>HCLS1-binding protein 3 (HS1-binding protein 3) (HSP1BP-3)</t>
+  </si>
+  <si>
     <t>MAP9_MOUSE</t>
   </si>
   <si>
+    <t>Microtubule-associated protein 9 (Aster-associated protein)</t>
+  </si>
+  <si>
     <t>FOXK2_MOUSE</t>
   </si>
   <si>
+    <t>Forkhead box protein K2 (Cellular transcription factor ILF-1) (Interleukin enhancer-binding factor 1)</t>
+  </si>
+  <si>
     <t>AGRB1_MOUSE</t>
   </si>
   <si>
+    <t>Adhesion G protein-coupled receptor B1 (Brain-specific angiogenesis inhibitor 1) [Cleaved into: Vasculostatin-120 (Vstat120); Vasculostatin-40 (Vstat-40)]</t>
+  </si>
+  <si>
     <t>TNR6A_MOUSE</t>
   </si>
   <si>
+    <t>Trinucleotide repeat-containing gene 6A protein</t>
+  </si>
+  <si>
     <t>ELNE_MOUSE</t>
   </si>
   <si>
+    <t>Neutrophil elastase (EC 3.4.21.37) (Elastase-2) (Leukocyte elastase)</t>
+  </si>
+  <si>
     <t>TGFA1_MOUSE</t>
   </si>
   <si>
+    <t>Transforming growth factor-beta receptor-associated protein 1 (TGF-beta receptor-associated protein 1) (TRAP-1) (TRAP1)</t>
+  </si>
+  <si>
     <t>MA11_MOUSE</t>
   </si>
   <si>
+    <t>Microtubule-associated protein 11 (Uncharacterized protein C7orf43 homolog)</t>
+  </si>
+  <si>
     <t>NIBA1_MOUSE</t>
   </si>
   <si>
+    <t>Protein Niban 1 (Protein FAM129A) (Protein Niban)</t>
+  </si>
+  <si>
     <t>FUZZY_MOUSE</t>
   </si>
   <si>
+    <t>Protein fuzzy homolog</t>
+  </si>
+  <si>
     <t>ST1D1_MOUSE</t>
   </si>
   <si>
+    <t>Sulfotransferase 1 family member D1 (ST1D1) (EC 2.8.2.-) (Amine N-sulfotransferase) (SULT-N) (Dopamine sulfotransferase Sult1d1) (Tyrosine-ester sulfotransferase)</t>
+  </si>
+  <si>
     <t>BBOF1_MOUSE</t>
   </si>
   <si>
+    <t>Basal body-orientation factor 1 (Coiled-coil domain-containing protein 176)</t>
+  </si>
+  <si>
     <t>KRT35_MOUSE</t>
   </si>
   <si>
+    <t>Keratin, type I cuticular Ha5 (Hair keratin, type I Ha5) (Keratin-35) (K35)</t>
+  </si>
+  <si>
     <t>CN028_MOUSE</t>
   </si>
   <si>
+    <t>Uncharacterized protein C14orf28 homolog</t>
+  </si>
+  <si>
     <t>S22AF_MOUSE</t>
   </si>
   <si>
+    <t>Solute carrier family 22 member 15</t>
+  </si>
+  <si>
     <t>PA24F_MOUSE</t>
   </si>
   <si>
+    <t>Cytosolic phospholipase A2 zeta (cPLA2-zeta) (EC 3.1.1.4) (Phospholipase A2 group IVF)</t>
+  </si>
+  <si>
     <t>GLSL_MOUSE</t>
   </si>
   <si>
+    <t>Glutaminase liver isoform, mitochondrial (GLS) (EC 3.5.1.2) (L-glutaminase) (L-glutamine amidohydrolase) (LGA)</t>
+  </si>
+  <si>
     <t>CE164_MOUSE</t>
   </si>
   <si>
+    <t>Centrosomal protein of 164 kDa (Cep164)</t>
+  </si>
+  <si>
     <t>S2610_MOUSE</t>
   </si>
   <si>
+    <t>Solute carrier family 26 member 10</t>
+  </si>
+  <si>
     <t>RNC_MOUSE</t>
   </si>
   <si>
+    <t>Ribonuclease 3 (EC 3.1.26.3) (Protein Drosha) (Ribonuclease III) (RNase III)</t>
+  </si>
+  <si>
     <t>HTR5A_MOUSE</t>
   </si>
   <si>
+    <t>HEAT repeat-containing protein 5A</t>
+  </si>
+  <si>
     <t>HEAT9_MOUSE</t>
   </si>
   <si>
+    <t>Protein HEATR9 (HEAT repeat-containing protein 9)</t>
+  </si>
+  <si>
     <t>ZSC26_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger and SCAN domain-containing protein 26 (Zinc finger protein 187)</t>
+  </si>
+  <si>
     <t>CA2D4_MOUSE</t>
   </si>
   <si>
+    <t>Voltage-dependent calcium channel subunit alpha-2/delta-4 (Voltage-gated calcium channel subunit alpha-2/delta-4) [Cleaved into: Voltage-dependent calcium channel subunit alpha-2-4; Voltage-dependent calcium channel subunit delta-4]</t>
+  </si>
+  <si>
     <t>FA71B_MOUSE</t>
   </si>
   <si>
+    <t>Protein FAM71B</t>
+  </si>
+  <si>
     <t>MYO1G_MOUSE</t>
   </si>
   <si>
+    <t>Unconventional myosin-Ig</t>
+  </si>
+  <si>
     <t>BBS12_MOUSE</t>
   </si>
   <si>
+    <t>Bardet-Biedl syndrome 12 protein homolog</t>
+  </si>
+  <si>
     <t>SSH2_MOUSE</t>
   </si>
   <si>
+    <t>Protein phosphatase Slingshot homolog 2 (EC 3.1.3.16) (EC 3.1.3.48) (SSH-like protein 2) (SSH-2L) (mSSH-2L)</t>
+  </si>
+  <si>
     <t>MYH4_MOUSE</t>
   </si>
   <si>
+    <t>Myosin-4 (Myosin heavy chain 2b) (MyHC-2b) (Myosin heavy chain 4)</t>
+  </si>
+  <si>
     <t>SAMC_MOUSE</t>
   </si>
   <si>
+    <t>S-adenosylmethionine mitochondrial carrier protein (Mitochondrial S-adenosylmethionine transporter) (Solute carrier family 25 member 26)</t>
+  </si>
+  <si>
     <t>ADSV_MOUSE</t>
   </si>
   <si>
+    <t>Adseverin (Gelsolin-like protein) (Scinderin)</t>
+  </si>
+  <si>
     <t>TBX2_MOUSE</t>
   </si>
   <si>
+    <t>T-box transcription factor TBX2 (T-box protein 2)</t>
+  </si>
+  <si>
     <t>NF2L2_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear factor erythroid 2-related factor 2 (NF-E2-related factor 2) (NFE2-related factor 2) (Nuclear factor, erythroid derived 2, like 2)</t>
+  </si>
+  <si>
     <t>IF1A_MOUSE</t>
   </si>
   <si>
+    <t>Eukaryotic translation initiation factor 1A (eIF-1A) (Eukaryotic translation initiation factor 4C) (eIF-4C)</t>
+  </si>
+  <si>
     <t>PAPS1_MOUSE</t>
   </si>
   <si>
+    <t>Bifunctional 3'-phosphoadenosine 5'-phosphosulfate synthase 1 (PAPS synthase 1) (PAPSS 1) (Sulfurylase kinase 1) (SK 1) (SK1) [Includes: Sulfate adenylyltransferase (EC 2.7.7.4) (ATP-sulfurylase) (Sulfate adenylate transferase) (SAT); Adenylyl-sulfate kinase (EC 2.7.1.25) (3'-phosphoadenosine-5'-phosphosulfate synthase) (APS kinase) (Adenosine-5'-phosphosulfate 3'-phosphotransferase) (Adenylylsulfate 3'-phosphotransferase)]</t>
+  </si>
+  <si>
     <t>PLSL_MOUSE</t>
   </si>
   <si>
+    <t>Plastin-2 (65 kDa macrophage protein) (L-plastin) (Lymphocyte cytosolic protein 1) (LCP-1) (pp65)</t>
+  </si>
+  <si>
     <t>BAP31_MOUSE</t>
   </si>
   <si>
+    <t>B-cell receptor-associated protein 31 (BCR-associated protein 31) (Bap31) (p28)</t>
+  </si>
+  <si>
     <t>DRD1_MOUSE</t>
   </si>
   <si>
+    <t>D(1A) dopamine receptor (Dopamine D1 receptor)</t>
+  </si>
+  <si>
     <t>SEM4B_MOUSE</t>
   </si>
   <si>
+    <t>Semaphorin-4B (Semaphorin-C) (Sema C)</t>
+  </si>
+  <si>
     <t>SCN9A_MOUSE</t>
   </si>
   <si>
+    <t>Sodium channel protein type 9 subunit alpha (Peripheral sodium channel 1) (PN1) (Sodium channel protein type IX subunit alpha) (Voltage-gated sodium channel subunit alpha Nav1.7)</t>
+  </si>
+  <si>
     <t>TP4A1_MOUSE</t>
   </si>
   <si>
+    <t>Protein tyrosine phosphatase type IVA 1 (EC 3.1.3.48) (Protein-tyrosine phosphatase 4a1) (Protein-tyrosine phosphatase of regenerating liver 1) (PRL-1)</t>
+  </si>
+  <si>
     <t>OMP_MOUSE</t>
   </si>
   <si>
+    <t>Olfactory marker protein</t>
+  </si>
+  <si>
     <t>PTPRJ_MOUSE</t>
   </si>
   <si>
+    <t>Receptor-type tyrosine-protein phosphatase eta (Protein-tyrosine phosphatase eta) (R-PTP-eta) (EC 3.1.3.48) (HPTP beta-like tyrosine phosphatase) (Protein-tyrosine phosphatase receptor type J) (R-PTP-J) (Susceptibility to colon cancer 1) (CD antigen CD148)</t>
+  </si>
+  <si>
     <t>SP9_MOUSE</t>
   </si>
   <si>
+    <t>Transcription factor Sp9</t>
+  </si>
+  <si>
     <t>KNL1_MOUSE</t>
   </si>
   <si>
+    <t>Kinetochore scaffold 1 (Cancer susceptibility candidate gene 5 protein homolog) (Kinetochore-null protein 1) (Protein CASC5)</t>
+  </si>
+  <si>
     <t>NAL4F_MOUSE</t>
   </si>
   <si>
+    <t>NACHT, LRR and PYD domains-containing protein 4F (NALP-kappa)</t>
+  </si>
+  <si>
     <t>CNTN4_MOUSE</t>
   </si>
   <si>
+    <t>Contactin-4 (Brain-derived immunoglobulin superfamily protein 2) (BIG-2)</t>
+  </si>
+  <si>
     <t>RIC1_MOUSE</t>
   </si>
   <si>
+    <t>RAB6A-GEF complex partner protein 1 (Protein RIC1 homolog)</t>
+  </si>
+  <si>
     <t>FGD6_MOUSE</t>
   </si>
   <si>
+    <t>FYVE, RhoGEF and PH domain-containing protein 6</t>
+  </si>
+  <si>
     <t>STK36_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase 36 (EC 2.7.11.1) (Fused homolog)</t>
+  </si>
+  <si>
     <t>PPR26_MOUSE</t>
   </si>
   <si>
+    <t>Protein phosphatase 1 regulatory subunit 26</t>
+  </si>
+  <si>
     <t>CDC5L_MOUSE</t>
   </si>
   <si>
+    <t>Cell division cycle 5-like protein (Cdc5-like protein)</t>
+  </si>
+  <si>
     <t>CHSS2_MOUSE</t>
   </si>
   <si>
+    <t>Chondroitin sulfate synthase 2 (EC 2.4.1.175) (EC 2.4.1.226) (Chondroitin glucuronyltransferase 2) (Chondroitin-polymerizing factor) (ChPF) (Glucuronosyl-N-acetylgalactosaminyl-proteoglycan 4-beta-N-acetylgalactosaminyltransferase II) (N-acetylgalactosaminyl-proteoglycan 3-beta-glucuronosyltransferase II) (N-acetylgalactosaminyltransferase 2)</t>
+  </si>
+  <si>
     <t>FREM2_MOUSE</t>
   </si>
   <si>
+    <t>FRAS1-related extracellular matrix protein 2 (ECM3 homolog) (NV domain-containing protein 1)</t>
+  </si>
+  <si>
     <t>RAD17_MOUSE</t>
   </si>
   <si>
+    <t>Cell cycle checkpoint protein RAD17</t>
+  </si>
+  <si>
     <t>LRIG3_MOUSE</t>
   </si>
   <si>
+    <t>Leucine-rich repeats and immunoglobulin-like domains protein 3 (LIG-3)</t>
+  </si>
+  <si>
     <t>TTBK1_MOUSE</t>
   </si>
   <si>
+    <t>Tau-tubulin kinase 1 (EC 2.7.11.1)</t>
+  </si>
+  <si>
     <t>MFD4A_MOUSE</t>
   </si>
   <si>
+    <t>Major facilitator superfamily domain-containing protein 4A (Major facilitator superfamily domain-containing protein 4)</t>
+  </si>
+  <si>
     <t>EXOC8_MOUSE</t>
   </si>
   <si>
+    <t>Exocyst complex component 8 (Exocyst complex 84 kDa subunit)</t>
+  </si>
+  <si>
     <t>NFRKB_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear factor related to kappa-B-binding protein (DNA-binding protein R kappa-B)</t>
+  </si>
+  <si>
     <t>ACOT5_MOUSE</t>
   </si>
   <si>
+    <t>Acyl-coenzyme A thioesterase 5 (Acyl-CoA thioesterase 5) (EC 3.1.2.2) (Peroxisomal acyl-coenzyme A thioester hydrolase Ic) (PTE-Ic) (Peroxisomal acyl-CoA thioesterase Ic)</t>
+  </si>
+  <si>
     <t>CLA4A_MOUSE</t>
   </si>
   <si>
+    <t>Calcium-activated chloride channel regulator 4A (EC 3.4.-.-) (Calcium-activated chloride channel regulator 6) (mClca6) [Cleaved into: Calcium-activated chloride channel regulator 4A, 110 kDa form; Calcium-activated chloride channel regulator 4A, 30 kDa form]</t>
+  </si>
+  <si>
     <t>MAML1_MOUSE</t>
   </si>
   <si>
+    <t>Mastermind-like protein 1 (Mam-1)</t>
+  </si>
+  <si>
     <t>IF172_MOUSE</t>
   </si>
   <si>
+    <t>Intraflagellar transport protein 172 homolog (Protein wimple)</t>
+  </si>
+  <si>
     <t>PC4L1_MOUSE</t>
   </si>
   <si>
+    <t>Purkinje cell protein 4-like protein 1 (PCP4-like protein 1)</t>
+  </si>
+  <si>
     <t>ASIC3_MOUSE</t>
   </si>
   <si>
+    <t>Acid-sensing ion channel 3 (ASIC3) (Amiloride-sensitive cation channel 3) (Dorsal root ASIC) (DRASIC)</t>
+  </si>
+  <si>
     <t>CRNS1_MOUSE</t>
   </si>
   <si>
+    <t>Carnosine synthase 1 (EC 6.3.2.11) (ATP-grasp domain-containing protein 1)</t>
+  </si>
+  <si>
     <t>KDM3B_MOUSE</t>
   </si>
   <si>
+    <t>Lysine-specific demethylase 3B (EC 1.14.11.-) (JmjC domain-containing histone demethylation protein 2B) (Jumonji domain-containing protein 1B)</t>
+  </si>
+  <si>
     <t>LSM8_MOUSE</t>
   </si>
   <si>
+    <t>U6 snRNA-associated Sm-like protein LSm8</t>
+  </si>
+  <si>
     <t>SIM12_MOUSE</t>
   </si>
   <si>
+    <t>Small integral membrane protein 12</t>
+  </si>
+  <si>
     <t>TEX14_MOUSE</t>
   </si>
   <si>
+    <t>Inactive serine/threonine-protein kinase TEX14 (Testis-expressed sequence 14) (Testis-expressed sequence 14 protein)</t>
+  </si>
+  <si>
     <t>ABTB2_MOUSE</t>
   </si>
   <si>
+    <t>Ankyrin repeat and BTB/POZ domain-containing protein 2</t>
+  </si>
+  <si>
     <t>OL180_MOUSE</t>
   </si>
   <si>
+    <t>Olfactory receptor Olfr180</t>
+  </si>
+  <si>
     <t>DSG1C_MOUSE</t>
   </si>
   <si>
+    <t>Desmoglein-1-gamma (Dsg1-gamma) (Desmoglein-6)</t>
+  </si>
+  <si>
     <t>KIRR2_MOUSE</t>
   </si>
   <si>
+    <t>Kin of IRRE-like protein 2 (Kin of irregular chiasm-like protein 2)</t>
+  </si>
+  <si>
     <t>MTMRC_MOUSE</t>
   </si>
   <si>
+    <t>Myotubularin-related protein 12 (Inactive phosphatidylinositol 3-phosphatase 12)</t>
+  </si>
+  <si>
     <t>KI20B_MOUSE</t>
   </si>
   <si>
+    <t>Kinesin-like protein KIF20B (Kinesin family member 20B) (Kinesin-related motor interacting with PIN1) (M-phase phosphoprotein 1) (MPP1)</t>
+  </si>
+  <si>
     <t>ZBT24_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger and BTB domain-containing protein 24 (Bone morphogenetic protein-induced factor 1) (Brain-specific protein 1) (Zinc finger protein 450)</t>
+  </si>
+  <si>
     <t>F110D_MOUSE</t>
   </si>
   <si>
+    <t>Protein FAM110D</t>
+  </si>
+  <si>
     <t>RTP2_MOUSE</t>
   </si>
   <si>
+    <t>Receptor-transporting protein 2</t>
+  </si>
+  <si>
     <t>GRWD1_MOUSE</t>
   </si>
   <si>
+    <t>Glutamate-rich WD repeat-containing protein 1 (Protein A301)</t>
+  </si>
+  <si>
     <t>GNS_MOUSE</t>
   </si>
   <si>
+    <t>N-acetylglucosamine-6-sulfatase (EC 3.1.6.14) (Glucosamine-6-sulfatase) (G6S)</t>
+  </si>
+  <si>
     <t>TRI65_MOUSE</t>
   </si>
   <si>
+    <t>Tripartite motif-containing protein 65</t>
+  </si>
+  <si>
     <t>PLPR1_MOUSE</t>
   </si>
   <si>
+    <t>Phospholipid phosphatase-related protein type 1 (Lipid phosphate phosphatase-related protein type 1) (Plasticity-related gene 3 protein) (PRG-3)</t>
+  </si>
+  <si>
     <t>S6A15_MOUSE</t>
   </si>
   <si>
+    <t>Sodium-dependent neutral amino acid transporter B(0)AT2 (Sodium- and chloride-dependent neurotransmitter transporter NTT73) (Solute carrier family 6 member 15) (Transporter v7-3)</t>
+  </si>
+  <si>
     <t>DMRT2_MOUSE</t>
   </si>
   <si>
+    <t>Doublesex- and mab-3-related transcription factor 2 (Doublesex-like 2 protein) (Terra)</t>
+  </si>
+  <si>
     <t>ST17B_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase 17B (EC 2.7.11.1) (DAP kinase-related apoptosis-inducing protein kinase 2)</t>
+  </si>
+  <si>
     <t>ALAT2_MOUSE</t>
   </si>
   <si>
+    <t>Alanine aminotransferase 2 (ALT2) (EC 2.6.1.2) (Glutamate pyruvate transaminase 2) (GPT 2) (Glutamic--alanine transaminase 2) (Glutamic--pyruvic transaminase 2)</t>
+  </si>
+  <si>
     <t>TMCO3_MOUSE</t>
   </si>
   <si>
+    <t>Transmembrane and coiled-coil domain-containing protein 3</t>
+  </si>
+  <si>
     <t>SESQ1_MOUSE</t>
   </si>
   <si>
+    <t>Sesquipedalian-1 (Ses1) (27 kDa inositol polyphosphate phosphatase interacting protein A) (IPIP27A) (PH domain-containing endocytic trafficking adaptor 1)</t>
+  </si>
+  <si>
     <t>SERC5_MOUSE</t>
   </si>
   <si>
+    <t>Serine incorporator 5 (Axotomy-induced glycoprotein 3) (AIGP-3)</t>
+  </si>
+  <si>
     <t>CCD40_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil domain-containing protein 40 (Protein links)</t>
+  </si>
+  <si>
     <t>ZN879_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 879</t>
+  </si>
+  <si>
     <t>RUFY1_MOUSE</t>
   </si>
   <si>
+    <t>RUN and FYVE domain-containing protein 1 (Rab4-interacting protein)</t>
+  </si>
+  <si>
     <t>UBP1_MOUSE</t>
   </si>
   <si>
+    <t>Ubiquitin carboxyl-terminal hydrolase 1 (EC 3.4.19.12) (Deubiquitinating enzyme 1) (Ubiquitin thioesterase 1) (Ubiquitin-specific-processing protease 1)</t>
+  </si>
+  <si>
     <t>SMG1_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase SMG1 (SMG-1) (EC 2.7.11.1)</t>
+  </si>
+  <si>
     <t>TF3C2_MOUSE</t>
   </si>
   <si>
+    <t>General transcription factor 3C polypeptide 2 (TF3C-beta) (Transcription factor IIIC 110 kDa subunit) (TFIIIC 110 kDa subunit) (TFIIIC110) (Transcription factor IIIC subunit beta)</t>
+  </si>
+  <si>
     <t>IF4E2_MOUSE</t>
   </si>
   <si>
+    <t>Eukaryotic translation initiation factor 4E type 2 (eIF-4E type 2) (eIF4E type 2) (eIF4E-2) (mRNA cap-binding protein type 2) (Eukaryotic translation initiation factor 4E-like 3) (eIF4E-like protein 4E-LP)</t>
+  </si>
+  <si>
     <t>WDR35_MOUSE</t>
   </si>
   <si>
+    <t>WD repeat-containing protein 35</t>
+  </si>
+  <si>
     <t>PGGHG_MOUSE</t>
   </si>
   <si>
+    <t>Protein-glucosylgalactosylhydroxylysine glucosidase (EC 3.2.1.107) (Acid trehalase-like protein 1)</t>
+  </si>
+  <si>
     <t>DAAM1_MOUSE</t>
   </si>
   <si>
+    <t>Disheveled-associated activator of morphogenesis 1</t>
+  </si>
+  <si>
     <t>KC1G1_MOUSE</t>
   </si>
   <si>
+    <t>Casein kinase I isoform gamma-1 (CKI-gamma 1) (EC 2.7.11.1)</t>
+  </si>
+  <si>
     <t>HACL2_MOUSE</t>
   </si>
   <si>
+    <t>2-hydroxyacyl-CoA lyase 2 (EC 4.1.2.-) (Acetolactate synthase-like protein) (IlvB-like protein)</t>
+  </si>
+  <si>
     <t>VP35L_MOUSE</t>
   </si>
   <si>
+    <t>VPS35 endosomal protein sorting factor-like</t>
+  </si>
+  <si>
     <t>PKN2_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase N2 (EC 2.7.11.13) (PKN gamma) (Protein kinase C-like 2) (Protein-kinase C-related kinase 2)</t>
+  </si>
+  <si>
     <t>Z385B_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 385B (Zinc finger protein 533)</t>
+  </si>
+  <si>
     <t>ZN609_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 609</t>
+  </si>
+  <si>
     <t>SWAHB_MOUSE</t>
   </si>
   <si>
+    <t>Ankyrin repeat domain-containing protein SOWAHB (Ankyrin repeat domain-containing protein 56) (Protein sosondowah homolog B)</t>
+  </si>
+  <si>
     <t>CCSE1_MOUSE</t>
   </si>
   <si>
+    <t>Serine-rich coiled-coil domain-containing protein 1 (Coiled-coil serine-rich protein 1)</t>
+  </si>
+  <si>
     <t>ZN428_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 428</t>
+  </si>
+  <si>
     <t>CCZ1_MOUSE</t>
   </si>
   <si>
+    <t>Vacuolar fusion protein CCZ1 homolog</t>
+  </si>
+  <si>
     <t>CC90B_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil domain-containing protein 90B, mitochondrial</t>
+  </si>
+  <si>
     <t>SEP10_MOUSE</t>
   </si>
   <si>
+    <t>Septin-10</t>
+  </si>
+  <si>
     <t>UBP20_MOUSE</t>
   </si>
   <si>
+    <t>Ubiquitin carboxyl-terminal hydrolase 20 (EC 3.4.19.12) (Deubiquitinating enzyme 20) (Ubiquitin thioesterase 20) (Ubiquitin-specific-processing protease 20) (VHL-interacting deubiquitinating enzyme 2)</t>
+  </si>
+  <si>
     <t>APH1B_MOUSE</t>
   </si>
   <si>
+    <t>Gamma-secretase subunit APH-1B (APH-1b) (Aph-1beta)</t>
+  </si>
+  <si>
     <t>RTP1_MOUSE</t>
   </si>
   <si>
+    <t>Receptor-transporting protein 1</t>
+  </si>
+  <si>
     <t>NHSL1_MOUSE</t>
   </si>
   <si>
+    <t>NHS-like protein 1</t>
+  </si>
+  <si>
     <t>PABP2_MOUSE</t>
   </si>
   <si>
+    <t>Polyadenylate-binding protein 2 (PABP-2) (Poly(A)-binding protein 2) (Nuclear poly(A)-binding protein 1) (Poly(A)-binding protein II) (PABII) (Polyadenylate-binding nuclear protein 1)</t>
+  </si>
+  <si>
     <t>TCAL5_MOUSE</t>
   </si>
   <si>
+    <t>Transcription elongation factor A protein-like 5 (TCEA-like protein 5) (Transcription elongation factor S-II protein-like 5)</t>
+  </si>
+  <si>
     <t>MICU2_MOUSE</t>
   </si>
   <si>
+    <t>Calcium uptake protein 2, mitochondrial (EF-hand domain-containing family member A1)</t>
+  </si>
+  <si>
     <t>CS067_MOUSE</t>
   </si>
   <si>
+    <t>UPF0575 protein C19orf67 homolog</t>
+  </si>
+  <si>
     <t>TAB1_MOUSE</t>
   </si>
   <si>
+    <t>TGF-beta-activated kinase 1 and MAP3K7-binding protein 1 (Mitogen-activated protein kinase kinase kinase 7-interacting protein 1) (TGF-beta-activated kinase 1-binding protein 1) (TAK1-binding protein 1)</t>
+  </si>
+  <si>
     <t>RPB2_MOUSE</t>
   </si>
   <si>
+    <t>DNA-directed RNA polymerase II subunit RPB2 (EC 2.7.7.6) (DNA-directed RNA polymerase II 140 kDa polypeptide) (DNA-directed RNA polymerase II subunit B) (RNA polymerase II subunit 2) (RNA polymerase II subunit B2)</t>
+  </si>
+  <si>
     <t>RGS12_MOUSE</t>
   </si>
   <si>
+    <t>Regulator of G-protein signaling 12 (RGS12)</t>
+  </si>
+  <si>
     <t>KLK14_MOUSE</t>
   </si>
   <si>
+    <t>Kallikrein-14 (EC 3.4.21.-) (Glandular kallikrein KLK14) (mGK14) (Kallikrein related-peptidase 14)</t>
+  </si>
+  <si>
     <t>H1FNT_MOUSE</t>
   </si>
   <si>
+    <t>Testis-specific H1 histone (Haploid germ cell-specific nuclear protein 1) (Histone H1.7) (Histone H1t2)</t>
+  </si>
+  <si>
     <t>CA021_MOUSE</t>
   </si>
   <si>
+    <t>Uncharacterized protein C1orf21 homolog</t>
+  </si>
+  <si>
     <t>TBX22_MOUSE</t>
   </si>
   <si>
+    <t>T-box transcription factor TBX22 (T-box protein 22)</t>
+  </si>
+  <si>
     <t>RPTOR_MOUSE</t>
   </si>
   <si>
+    <t>Regulatory-associated protein of mTOR (Raptor) (p150 target of rapamycin (TOR)-scaffold protein)</t>
+  </si>
+  <si>
     <t>ACE2_MOUSE</t>
   </si>
   <si>
+    <t>Angiotensin-converting enzyme 2 (EC 3.4.17.23) (ACE-related carboxypeptidase) [Cleaved into: Processed angiotensin-converting enzyme 2]</t>
+  </si>
+  <si>
     <t>I23O2_MOUSE</t>
   </si>
   <si>
+    <t>Indoleamine 2,3-dioxygenase 2 (IDO-2) (EC 1.13.11.-) (Indoleamine 2,3-dioxygenase-like protein 1) (Indoleamine-pyrrole 2,3-dioxygenase-like protein 1)</t>
+  </si>
+  <si>
     <t>TAP26_MOUSE</t>
   </si>
   <si>
+    <t>Thyroid transcription factor 1-associated protein 26 (TTF-1-associated protein 26) (Coiled-coil domain-containing protein 59)</t>
+  </si>
+  <si>
     <t>MBOA2_MOUSE</t>
   </si>
   <si>
+    <t>Lysophospholipid acyltransferase 2 (LPLAT 2) (EC 2.3.1.-) (1-acylglycerophosphocholine O-acyltransferase) (EC 2.3.1.23) (1-acylglycerophosphoethanolamine O-acyltransferase) (EC 2.3.1.n7) (Lysophosphatidylcholine acyltransferase) (LPCAT) (Lyso-PC acyltransferase) (Lysophosphatidylcholine acyltransferase 4) (Lyso-PC acyltransferase 4) (mLPCAT4) (Lysophosphatidylethanolamine acyltransferase) (LPEAT) (Lyso-PE acyltransferase) (Membrane-bound O-acyltransferase domain-containing protein 2) (O-acyltransferase domain-containing protein 2)</t>
+  </si>
+  <si>
     <t>RNF8_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase RNF8 (EC 2.3.2.27) (ActA-interacting protein 37) (AIP37) (LaXp180) (RING finger protein 8) (RING-type E3 ubiquitin transferase RNF8)</t>
+  </si>
+  <si>
     <t>MED25_MOUSE</t>
   </si>
   <si>
+    <t>Mediator of RNA polymerase II transcription subunit 25 (Mediator complex subunit 25) (mMED25)</t>
+  </si>
+  <si>
     <t>TM143_MOUSE</t>
   </si>
   <si>
+    <t>Transmembrane protein 143</t>
+  </si>
+  <si>
     <t>ASZ1_MOUSE</t>
   </si>
   <si>
+    <t>Ankyrin repeat, SAM and basic leucine zipper domain-containing protein 1 (Germ cell-specific ankyrin, SAM and basic leucine zipper domain-containing protein)</t>
+  </si>
+  <si>
     <t>DX39A_MOUSE</t>
   </si>
   <si>
+    <t>ATP-dependent RNA helicase DDX39A (EC 3.6.4.13) (DEAD box protein 39)</t>
+  </si>
+  <si>
     <t>RT23_MOUSE</t>
   </si>
   <si>
+    <t>28S ribosomal protein S23, mitochondrial (MRP-S23) (S23mt)</t>
+  </si>
+  <si>
     <t>CUL7_MOUSE</t>
   </si>
   <si>
+    <t>Cullin-7 (CUL-7) (p185) (p193)</t>
+  </si>
+  <si>
     <t>MARK1_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase MARK1 (EC 2.7.11.1) (EC 2.7.11.26) (ELKL motif serine/threonine-protein kinase 3) (MAP/microtubule affinity-regulating kinase 1) (PAR1 homolog c) (Par-1c) (mPar-1c)</t>
+  </si>
+  <si>
     <t>MRP2_MOUSE</t>
   </si>
   <si>
+    <t>Canalicular multispecific organic anion transporter 1 (ATP-binding cassette sub-family C member 2) (Multidrug resistance-associated protein 2) (EC 7.6.2.2)</t>
+  </si>
+  <si>
     <t>STRC_MOUSE</t>
   </si>
   <si>
+    <t>Stereocilin</t>
+  </si>
+  <si>
     <t>STK38_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase 38 (EC 2.7.11.1) (NDR1 protein kinase) (Nuclear Dbf2-related kinase 1)</t>
+  </si>
+  <si>
     <t>ZN622_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 622</t>
+  </si>
+  <si>
     <t>EPN3_MOUSE</t>
   </si>
   <si>
+    <t>Epsin-3 (EPS-15-interacting protein 3)</t>
+  </si>
+  <si>
     <t>TIPIN_MOUSE</t>
   </si>
   <si>
+    <t>TIMELESS-interacting protein</t>
+  </si>
+  <si>
     <t>AS3MT_MOUSE</t>
   </si>
   <si>
+    <t>Arsenite methyltransferase (EC 2.1.1.137) (Methylarsonite methyltransferase) (S-adenosyl-L-methionine:arsenic(III) methyltransferase)</t>
+  </si>
+  <si>
     <t>LAP4B_MOUSE</t>
   </si>
   <si>
+    <t>Lysosomal-associated transmembrane protein 4B</t>
+  </si>
+  <si>
     <t>UIF_MOUSE</t>
   </si>
   <si>
+    <t>UAP56-interacting factor (Forty-two-three domain-containing protein 1) (Protein 40-2-3)</t>
+  </si>
+  <si>
     <t>ALPK2_MOUSE</t>
   </si>
   <si>
+    <t>Alpha-protein kinase 2 (EC 2.7.11.1) (Heart alpha-protein kinase)</t>
+  </si>
+  <si>
     <t>AFG31_MOUSE</t>
   </si>
   <si>
+    <t>AFG3-like protein 1 (EC 3.4.24.-)</t>
+  </si>
+  <si>
     <t>GOGA2_MOUSE</t>
   </si>
   <si>
+    <t>Golgin subfamily A member 2 (130 kDa cis-Golgi matrix protein) (GM130)</t>
+  </si>
+  <si>
     <t>FRK_MOUSE</t>
   </si>
   <si>
+    <t>Tyrosine-protein kinase FRK (EC 2.7.10.2) (Beta-cell Src-homology tyrosine kinase) (BSK) (FYN-related kinase) (Intestine tyrosine kinase)</t>
+  </si>
+  <si>
     <t>CIC_MOUSE</t>
   </si>
   <si>
+    <t>Protein capicua homolog</t>
+  </si>
+  <si>
     <t>SFXN4_MOUSE</t>
   </si>
   <si>
+    <t>Sideroflexin-4</t>
+  </si>
+  <si>
     <t>TINAL_MOUSE</t>
   </si>
   <si>
+    <t>Tubulointerstitial nephritis antigen-like (Adrenocortical zonation factor 1) (AZ-1) (Androgen-regulated gene 1 protein) (Tubulointerstitial nephritis antigen-related protein) (TARP)</t>
+  </si>
+  <si>
     <t>EPCAM_MOUSE</t>
   </si>
   <si>
+    <t>Epithelial cell adhesion molecule (Ep-CAM) (Epithelial glycoprotein 314) (EGP314) (mEGP314) (Protein 289A) (Tumor-associated calcium signal transducer 1) (CD antigen CD326)</t>
+  </si>
+  <si>
     <t>NEUA_MOUSE</t>
   </si>
   <si>
+    <t>N-acylneuraminate cytidylyltransferase (EC 2.7.7.43) (CMP-N-acetylneuraminic acid synthase) (CMP-NeuNAc synthase)</t>
+  </si>
+  <si>
     <t>CF089_MOUSE</t>
   </si>
   <si>
+    <t>Bombesin receptor-activated protein C6orf89 homolog</t>
+  </si>
+  <si>
     <t>CSTF3_MOUSE</t>
   </si>
   <si>
+    <t>Cleavage stimulation factor subunit 3 (CF-1 77 kDa subunit) (Cleavage stimulation factor 77 kDa subunit) (CSTF 77 kDa subunit) (CstF-77)</t>
+  </si>
+  <si>
     <t>NASP_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear autoantigenic sperm protein (NASP)</t>
+  </si>
+  <si>
     <t>GIMA3_MOUSE</t>
   </si>
   <si>
+    <t>GTPase IMAP family member 3 (Immunity-associated nucleotide 4 protein) (IAN-4)</t>
+  </si>
+  <si>
     <t>RNF17_MOUSE</t>
   </si>
   <si>
+    <t>RING finger protein 17 (Mad member-interacting protein 2) (Mmip-2)</t>
+  </si>
+  <si>
     <t>RAF1_MOUSE</t>
   </si>
   <si>
+    <t>RAF proto-oncogene serine/threonine-protein kinase (EC 2.7.11.1) (Proto-oncogene c-RAF) (cRaf) (Raf-1)</t>
+  </si>
+  <si>
     <t>SYTL1_MOUSE</t>
   </si>
   <si>
+    <t>Synaptotagmin-like protein 1 (Exophilin-7)</t>
+  </si>
+  <si>
     <t>RM01_MOUSE</t>
   </si>
   <si>
+    <t>39S ribosomal protein L1, mitochondrial (L1mt) (MRP-L1)</t>
+  </si>
+  <si>
     <t>ZN318_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 318 (Testicular zinc finger protein)</t>
+  </si>
+  <si>
     <t>STABP_MOUSE</t>
   </si>
   <si>
+    <t>STAM-binding protein (EC 3.4.19.-) (Associated molecule with the SH3 domain of STAM)</t>
+  </si>
+  <si>
     <t>USE1_MOUSE</t>
   </si>
   <si>
+    <t>Vesicle transport protein USE1 (Protein D12) (USE1-like protein)</t>
+  </si>
+  <si>
     <t>LSM7_MOUSE</t>
   </si>
   <si>
+    <t>U6 snRNA-associated Sm-like protein LSm7</t>
+  </si>
+  <si>
     <t>SYCP2_MOUSE</t>
   </si>
   <si>
+    <t>Synaptonemal complex protein 2 (SCP-2) (Synaptonemal complex lateral element protein)</t>
+  </si>
+  <si>
     <t>ARHGP_MOUSE</t>
   </si>
   <si>
+    <t>Rho guanine nucleotide exchange factor 25 (Guanine nucleotide exchange factor GEFT) (Rac/Cdc42/Rho exchange factor GEFT) (RhoA/Rac/Cdc42 guanine nucleotide exchange factor GEFT) (p63RhoGEF)</t>
+  </si>
+  <si>
     <t>CL045_MOUSE</t>
   </si>
   <si>
+    <t>Uncharacterized protein C12orf45 homolog</t>
+  </si>
+  <si>
     <t>MPC2_MOUSE</t>
   </si>
   <si>
+    <t>Mitochondrial pyruvate carrier 2 (Brain protein 44)</t>
+  </si>
+  <si>
     <t>ZBED3_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger BED domain-containing protein 3 (Axin-interacting protein)</t>
+  </si>
+  <si>
     <t>ARM10_MOUSE</t>
   </si>
   <si>
+    <t>Armadillo repeat-containing protein 10</t>
+  </si>
+  <si>
     <t>KPRA_MOUSE</t>
   </si>
   <si>
+    <t>Phosphoribosyl pyrophosphate synthase-associated protein 1 (PRPP synthase-associated protein 1) (39 kDa phosphoribosypyrophosphate synthase-associated protein) (PAP39)</t>
+  </si>
+  <si>
     <t>RM45_MOUSE</t>
   </si>
   <si>
+    <t>39S ribosomal protein L45, mitochondrial (L45mt) (MRP-L45)</t>
+  </si>
+  <si>
     <t>UPK1A_MOUSE</t>
   </si>
   <si>
+    <t>Uroplakin-1a (UP1a) (Uroplakin Ia) (UPIa) (UPKa)</t>
+  </si>
+  <si>
     <t>ACBD7_MOUSE</t>
   </si>
   <si>
+    <t>Acyl-CoA-binding domain-containing protein 7</t>
+  </si>
+  <si>
     <t>THAP2_MOUSE</t>
   </si>
   <si>
+    <t>THAP domain-containing protein 2</t>
+  </si>
+  <si>
     <t>CPVL_MOUSE</t>
   </si>
   <si>
+    <t>Probable serine carboxypeptidase CPVL (EC 3.4.16.-)</t>
+  </si>
+  <si>
     <t>TTC33_MOUSE</t>
   </si>
   <si>
+    <t>Tetratricopeptide repeat protein 33 (TPR repeat protein 33)</t>
+  </si>
+  <si>
     <t>FUND2_MOUSE</t>
   </si>
   <si>
+    <t>FUN14 domain-containing protein 2 (Hepatitis C virus core-binding protein 6)</t>
+  </si>
+  <si>
     <t>NAAA_MOUSE</t>
   </si>
   <si>
+    <t>N-acylethanolamine-hydrolyzing acid amidase (EC 3.5.1.60) (N-acylsphingosine amidohydrolase-like) (ASAH-like protein) [Cleaved into: N-acylethanolamine-hydrolyzing acid amidase subunit alpha; N-acylethanolamine-hydrolyzing acid amidase subunit beta]</t>
+  </si>
+  <si>
     <t>DEN10_MOUSE</t>
   </si>
   <si>
+    <t>DENN domain-containing protein 10 (Protein FAM45A)</t>
+  </si>
+  <si>
     <t>WDR38_MOUSE</t>
   </si>
   <si>
+    <t>WD repeat-containing protein 38</t>
+  </si>
+  <si>
     <t>DUS21_MOUSE</t>
   </si>
   <si>
+    <t>Dual specificity phosphatase 21 (EC 3.1.3.16) (EC 3.1.3.48)</t>
+  </si>
+  <si>
     <t>EFHC1_MOUSE</t>
   </si>
   <si>
+    <t>EF-hand domain-containing protein 1 (Myoclonin-1)</t>
+  </si>
+  <si>
     <t>PXL2B_MOUSE</t>
   </si>
   <si>
+    <t>Prostamide/prostaglandin F synthase (Prostamide/PG F synthase) (Prostamide/PGF synthase) (EC 1.11.1.20) (Peroxiredoxin-like 2B)</t>
+  </si>
+  <si>
     <t>TCF20_MOUSE</t>
   </si>
   <si>
+    <t>Transcription factor 20 (TCF-20) (Nuclear factor SPBP) (Stromelysin-1 PDGF-responsive element-binding protein) (SPRE-binding protein)</t>
+  </si>
+  <si>
     <t>MYCBP_MOUSE</t>
   </si>
   <si>
+    <t>c-Myc-binding protein (Associate of Myc 1) (AMY-1)</t>
+  </si>
+  <si>
     <t>ZDH16_MOUSE</t>
   </si>
   <si>
+    <t>Palmitoyltransferase ZDHHC16 (EC 2.3.1.225) (Abl-philin 2) (Zinc finger DHHC domain-containing protein 16) (DHHC-16)</t>
+  </si>
+  <si>
     <t>TMOD3_MOUSE</t>
   </si>
   <si>
+    <t>Tropomodulin-3 (Ubiquitous tropomodulin) (U-Tmod)</t>
+  </si>
+  <si>
     <t>S12A4_MOUSE</t>
   </si>
   <si>
+    <t>Solute carrier family 12 member 4 (Electroneutral potassium-chloride cotransporter 1) (Erythroid K-Cl cotransporter 1) (mKCC1)</t>
+  </si>
+  <si>
     <t>RALB_MOUSE</t>
   </si>
   <si>
+    <t>Ras-related protein Ral-B</t>
+  </si>
+  <si>
     <t>RPF2_MOUSE</t>
   </si>
   <si>
+    <t>Ribosome production factor 2 homolog (Brix domain-containing protein 1) (Ribosome biogenesis protein RPF2 homolog)</t>
+  </si>
+  <si>
     <t>COG8_MOUSE</t>
   </si>
   <si>
+    <t>Conserved oligomeric Golgi complex subunit 8 (COG complex subunit 8) (Component of oligomeric Golgi complex 8)</t>
+  </si>
+  <si>
     <t>CNGB3_MOUSE</t>
   </si>
   <si>
+    <t>Cyclic nucleotide-gated cation channel beta-3 (Cone photoreceptor cGMP-gated channel subunit beta) (Cyclic nucleotide-gated cation channel modulatory subunit) (Cyclic nucleotide-gated channel beta-3) (CNG channel beta-3) (Cyclic nucleotide-gated channel subunit CNG6)</t>
+  </si>
+  <si>
     <t>GMEB1_MOUSE</t>
   </si>
   <si>
+    <t>Glucocorticoid modulatory element-binding protein 1 (GMEB-1)</t>
+  </si>
+  <si>
     <t>SCLY_MOUSE</t>
   </si>
   <si>
+    <t>Selenocysteine lyase (mSCL) (EC 4.4.1.16)</t>
+  </si>
+  <si>
     <t>BLNK_MOUSE</t>
   </si>
   <si>
+    <t>B-cell linker protein (B-cell adapter containing a SH2 domain protein) (B-cell adapter containing a Src homology 2 domain protein) (Cytoplasmic adapter protein) (Lymphocyte antigen 57) (Src homology 2 domain-containing leukocyte protein of 65 kDa) (Slp-65)</t>
+  </si>
+  <si>
     <t>NAGAB_MOUSE</t>
   </si>
   <si>
+    <t>Alpha-N-acetylgalactosaminidase (EC 3.2.1.49) (Alpha-galactosidase B)</t>
+  </si>
+  <si>
     <t>ABCBB_MOUSE</t>
   </si>
   <si>
+    <t>Bile salt export pump (EC 7.6.2.-) (ATP-binding cassette sub-family B member 11) (Sister of P-glycoprotein)</t>
+  </si>
+  <si>
     <t>PO210_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear pore membrane glycoprotein 210 (Nuclear pore protein gp210) (Nuclear envelope pore membrane protein POM 210) (POM210) (Nucleoporin Nup210) (Pore membrane protein of 210 kDa)</t>
+  </si>
+  <si>
     <t>PPM1D_MOUSE</t>
   </si>
   <si>
+    <t>Protein phosphatase 1D (EC 3.1.3.16) (Protein phosphatase 2C isoform delta) (PP2C-delta) (Protein phosphatase magnesium-dependent 1 delta) (p53-induced protein phosphatase 1)</t>
+  </si>
+  <si>
     <t>CLCN2_MOUSE</t>
   </si>
   <si>
+    <t>Chloride channel protein 2 (ClC-2)</t>
+  </si>
+  <si>
     <t>ACOX1_MOUSE</t>
   </si>
   <si>
+    <t>Peroxisomal acyl-coenzyme A oxidase 1 (AOX) (EC 1.3.3.6) (Palmitoyl-CoA oxidase) [Cleaved into: Peroxisomal acyl-CoA oxidase 1, A chain; Peroxisomal acyl-CoA oxidase 1, B chain; Peroxisomal acyl-CoA oxidase 1, C chain]</t>
+  </si>
+  <si>
     <t>AKP8L_MOUSE</t>
   </si>
   <si>
+    <t>A-kinase anchor protein 8-like (AKAP8-like protein) (Neighbor of A-kinase-anchoring protein 95) (Neighbor of AKAP95)</t>
+  </si>
+  <si>
     <t>CETN2_MOUSE</t>
   </si>
   <si>
+    <t>Centrin-2 (Caltractin isoform 1)</t>
+  </si>
+  <si>
     <t>MK09_MOUSE</t>
   </si>
   <si>
+    <t>Mitogen-activated protein kinase 9 (MAP kinase 9) (MAPK 9) (EC 2.7.11.24) (Stress-activated protein kinase JNK2) (c-Jun N-terminal kinase 2)</t>
+  </si>
+  <si>
     <t>LBX2_MOUSE</t>
   </si>
   <si>
+    <t>Transcription factor LBX2 (Ladybird homeobox protein homolog 2)</t>
+  </si>
+  <si>
     <t>DPOE1_MOUSE</t>
   </si>
   <si>
+    <t>DNA polymerase epsilon catalytic subunit A (EC 2.7.7.7) (3'-5' exodeoxyribonuclease) (EC 3.1.11.-) (DNA polymerase II subunit A)</t>
+  </si>
+  <si>
     <t>STAT2_MOUSE</t>
   </si>
   <si>
+    <t>Signal transducer and activator of transcription 2</t>
+  </si>
+  <si>
     <t>CHRD_MOUSE</t>
   </si>
   <si>
+    <t>Chordin</t>
+  </si>
+  <si>
     <t>BCL10_MOUSE</t>
   </si>
   <si>
+    <t>B-cell lymphoma/leukemia 10 (B-cell CLL/lymphoma 10) (Bcl-10) (CARD-containing molecule enhancing NF-kappa-B) (CARD-like apoptotic protein) (mCLAP) (CED-3/ICH-1 prodomain homologous E10-like regulator) (mCIPER) (Cellular homolog of vCARMEN) (cCARMEN) (Cellular-E10) (c-E10) (Mammalian CARD-containing adapter molecule E10) (mE10)</t>
+  </si>
+  <si>
     <t>OC90_MOUSE</t>
   </si>
   <si>
+    <t>Otoconin-90 (Oc90) (Otoconin-95) (Oc95)</t>
+  </si>
+  <si>
     <t>FYV1_MOUSE</t>
   </si>
   <si>
+    <t>1-phosphatidylinositol 3-phosphate 5-kinase (Phosphatidylinositol 3-phosphate 5-kinase) (EC 2.7.1.150) (FYVE finger-containing phosphoinositide kinase) (PIKfyve) (Phosphatidylinositol 3-phosphate 5-kinase type III) (PIPkin-III) (Type III PIP kinase) (p235)</t>
+  </si>
+  <si>
     <t>DIAP3_MOUSE</t>
   </si>
   <si>
+    <t>Protein diaphanous homolog 3 (Diaphanous-related formin-3) (DRF3) (p134mDIA2) (mDIA2)</t>
+  </si>
+  <si>
     <t>RLBP1_MOUSE</t>
   </si>
   <si>
+    <t>Retinaldehyde-binding protein 1 (Cellular retinaldehyde-binding protein)</t>
+  </si>
+  <si>
     <t>ROBO3_MOUSE</t>
   </si>
   <si>
+    <t>Roundabout homolog 3 (Retinoblastoma-inhibiting gene 1 protein) (Rig-1)</t>
+  </si>
+  <si>
     <t>PMM2_MOUSE</t>
   </si>
   <si>
+    <t>Phosphomannomutase 2 (PMM 2) (EC 5.4.2.8)</t>
+  </si>
+  <si>
     <t>SNUT1_MOUSE</t>
   </si>
   <si>
+    <t>U4/U6.U5 tri-snRNP-associated protein 1 (Hypoxia-associated factor) (Squamous cell carcinoma antigen recognized by T-cells 1) (SART-1) (mSART-1)</t>
+  </si>
+  <si>
     <t>LRIT3_MOUSE</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat, immunoglobulin-like domain and transmembrane domain-containing protein 3</t>
   </si>
 </sst>
 </file>
@@ -1317,1630 +2289,2602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A324"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>282</v>
+      </c>
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>286</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>290</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>296</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>298</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>316</v>
+      </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>318</v>
+      </c>
+      <c r="B160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>320</v>
+      </c>
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>322</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>324</v>
+      </c>
+      <c r="B163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>326</v>
+      </c>
+      <c r="B164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>328</v>
+      </c>
+      <c r="B165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>330</v>
+      </c>
+      <c r="B166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>332</v>
+      </c>
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>334</v>
+      </c>
+      <c r="B168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>336</v>
+      </c>
+      <c r="B169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>338</v>
+      </c>
+      <c r="B170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>340</v>
+      </c>
+      <c r="B171" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>342</v>
+      </c>
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>344</v>
+      </c>
+      <c r="B173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>348</v>
+      </c>
+      <c r="B175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>350</v>
+      </c>
+      <c r="B176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>360</v>
+      </c>
+      <c r="B181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>362</v>
+      </c>
+      <c r="B182" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>364</v>
+      </c>
+      <c r="B183" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>366</v>
+      </c>
+      <c r="B184" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>368</v>
+      </c>
+      <c r="B185" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>370</v>
+      </c>
+      <c r="B186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>372</v>
+      </c>
+      <c r="B187" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>374</v>
+      </c>
+      <c r="B188" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>376</v>
+      </c>
+      <c r="B189" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>378</v>
+      </c>
+      <c r="B190" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>380</v>
+      </c>
+      <c r="B191" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>384</v>
+      </c>
+      <c r="B193" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>386</v>
+      </c>
+      <c r="B194" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>388</v>
+      </c>
+      <c r="B195" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>390</v>
+      </c>
+      <c r="B196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>392</v>
+      </c>
+      <c r="B197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>394</v>
+      </c>
+      <c r="B198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>396</v>
+      </c>
+      <c r="B199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>398</v>
+      </c>
+      <c r="B200" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>400</v>
+      </c>
+      <c r="B201" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>402</v>
+      </c>
+      <c r="B202" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>404</v>
+      </c>
+      <c r="B203" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>406</v>
+      </c>
+      <c r="B204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>408</v>
+      </c>
+      <c r="B205" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>410</v>
+      </c>
+      <c r="B206" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>412</v>
+      </c>
+      <c r="B207" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>414</v>
+      </c>
+      <c r="B208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>416</v>
+      </c>
+      <c r="B209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>418</v>
+      </c>
+      <c r="B210" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>420</v>
+      </c>
+      <c r="B211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>422</v>
+      </c>
+      <c r="B212" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>424</v>
+      </c>
+      <c r="B213" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>426</v>
+      </c>
+      <c r="B214" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>428</v>
+      </c>
+      <c r="B215" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>430</v>
+      </c>
+      <c r="B216" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>432</v>
+      </c>
+      <c r="B217" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>434</v>
+      </c>
+      <c r="B218" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>436</v>
+      </c>
+      <c r="B219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>438</v>
+      </c>
+      <c r="B220" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>440</v>
+      </c>
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>442</v>
+      </c>
+      <c r="B222" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>444</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>446</v>
+      </c>
+      <c r="B224" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>448</v>
+      </c>
+      <c r="B225" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>450</v>
+      </c>
+      <c r="B226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>452</v>
+      </c>
+      <c r="B227" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>454</v>
+      </c>
+      <c r="B228" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>456</v>
+      </c>
+      <c r="B229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>458</v>
+      </c>
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>460</v>
+      </c>
+      <c r="B231" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>462</v>
+      </c>
+      <c r="B232" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>464</v>
+      </c>
+      <c r="B233" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>466</v>
+      </c>
+      <c r="B234" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>468</v>
+      </c>
+      <c r="B235" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>470</v>
+      </c>
+      <c r="B236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>472</v>
+      </c>
+      <c r="B237" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>474</v>
+      </c>
+      <c r="B238" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>476</v>
+      </c>
+      <c r="B239" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>478</v>
+      </c>
+      <c r="B240" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>480</v>
+      </c>
+      <c r="B241" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>482</v>
+      </c>
+      <c r="B242" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>484</v>
+      </c>
+      <c r="B243" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>486</v>
+      </c>
+      <c r="B244" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
+        <v>488</v>
+      </c>
+      <c r="B245" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>490</v>
+      </c>
+      <c r="B246" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>492</v>
+      </c>
+      <c r="B247" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>494</v>
+      </c>
+      <c r="B248" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>496</v>
+      </c>
+      <c r="B249" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>498</v>
+      </c>
+      <c r="B250" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>500</v>
+      </c>
+      <c r="B251" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>502</v>
+      </c>
+      <c r="B252" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>504</v>
+      </c>
+      <c r="B253" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
+        <v>506</v>
+      </c>
+      <c r="B254" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>508</v>
+      </c>
+      <c r="B255" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
+        <v>510</v>
+      </c>
+      <c r="B256" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
+        <v>512</v>
+      </c>
+      <c r="B257" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
+        <v>514</v>
+      </c>
+      <c r="B258" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
+        <v>516</v>
+      </c>
+      <c r="B259" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
+        <v>518</v>
+      </c>
+      <c r="B260" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
+        <v>520</v>
+      </c>
+      <c r="B261" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
+        <v>522</v>
+      </c>
+      <c r="B262" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
+        <v>524</v>
+      </c>
+      <c r="B263" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
+        <v>526</v>
+      </c>
+      <c r="B264" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
+        <v>528</v>
+      </c>
+      <c r="B265" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
+        <v>530</v>
+      </c>
+      <c r="B266" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
+        <v>532</v>
+      </c>
+      <c r="B267" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
+        <v>534</v>
+      </c>
+      <c r="B268" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
+        <v>536</v>
+      </c>
+      <c r="B269" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
+        <v>538</v>
+      </c>
+      <c r="B270" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
+        <v>540</v>
+      </c>
+      <c r="B271" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
+        <v>542</v>
+      </c>
+      <c r="B272" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
+        <v>544</v>
+      </c>
+      <c r="B273" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
+        <v>546</v>
+      </c>
+      <c r="B274" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
+        <v>548</v>
+      </c>
+      <c r="B275" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
+        <v>550</v>
+      </c>
+      <c r="B276" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
+        <v>552</v>
+      </c>
+      <c r="B277" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
+        <v>554</v>
+      </c>
+      <c r="B278" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
+        <v>556</v>
+      </c>
+      <c r="B279" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
+        <v>558</v>
+      </c>
+      <c r="B280" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
+        <v>560</v>
+      </c>
+      <c r="B281" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
+        <v>562</v>
+      </c>
+      <c r="B282" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
+        <v>564</v>
+      </c>
+      <c r="B283" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
+        <v>566</v>
+      </c>
+      <c r="B284" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
+        <v>568</v>
+      </c>
+      <c r="B285" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
+        <v>570</v>
+      </c>
+      <c r="B286" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
+        <v>572</v>
+      </c>
+      <c r="B287" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
+        <v>574</v>
+      </c>
+      <c r="B288" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
+        <v>576</v>
+      </c>
+      <c r="B289" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
+        <v>578</v>
+      </c>
+      <c r="B290" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
+        <v>580</v>
+      </c>
+      <c r="B291" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
+        <v>582</v>
+      </c>
+      <c r="B292" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
+        <v>584</v>
+      </c>
+      <c r="B293" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
+        <v>586</v>
+      </c>
+      <c r="B294" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
+        <v>588</v>
+      </c>
+      <c r="B295" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
+        <v>590</v>
+      </c>
+      <c r="B296" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
+        <v>592</v>
+      </c>
+      <c r="B297" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
+        <v>594</v>
+      </c>
+      <c r="B298" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
+        <v>596</v>
+      </c>
+      <c r="B299" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
+        <v>598</v>
+      </c>
+      <c r="B300" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
+        <v>600</v>
+      </c>
+      <c r="B301" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
+        <v>602</v>
+      </c>
+      <c r="B302" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
+        <v>604</v>
+      </c>
+      <c r="B303" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
+        <v>606</v>
+      </c>
+      <c r="B304" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
+        <v>608</v>
+      </c>
+      <c r="B305" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
+        <v>610</v>
+      </c>
+      <c r="B306" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
+        <v>612</v>
+      </c>
+      <c r="B307" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
+        <v>614</v>
+      </c>
+      <c r="B308" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
+        <v>616</v>
+      </c>
+      <c r="B309" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
+        <v>618</v>
+      </c>
+      <c r="B310" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
+        <v>620</v>
+      </c>
+      <c r="B311" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
+        <v>622</v>
+      </c>
+      <c r="B312" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
+        <v>624</v>
+      </c>
+      <c r="B313" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
+        <v>626</v>
+      </c>
+      <c r="B314" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
+        <v>628</v>
+      </c>
+      <c r="B315" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
+        <v>630</v>
+      </c>
+      <c r="B316" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
+        <v>632</v>
+      </c>
+      <c r="B317" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
+        <v>634</v>
+      </c>
+      <c r="B318" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
+        <v>636</v>
+      </c>
+      <c r="B319" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
+        <v>638</v>
+      </c>
+      <c r="B320" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
+        <v>640</v>
+      </c>
+      <c r="B321" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
+        <v>642</v>
+      </c>
+      <c r="B322" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
+        <v>644</v>
+      </c>
+      <c r="B323" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>323</v>
+        <v>646</v>
+      </c>
+      <c r="B324" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
